--- a/doc/Excel Export Schedule.xlsx
+++ b/doc/Excel Export Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13360"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mullion Schedule" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Roof Schedule" sheetId="6" r:id="rId3"/>
     <sheet name="Wall Schedule" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="141">
   <si>
-    <t>Mullion Schedule</t>
-  </si>
-  <si>
     <t>Assembly Code</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>2.88 m³</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="AC1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -876,7 +876,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16" thickTop="1" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -905,79 +905,79 @@
     </row>
     <row r="2" spans="1:25" ht="16" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="16" thickTop="1" thickBot="1"/>
@@ -992,10 +992,10 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1008,13 +1008,13 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1033,10 +1033,10 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1049,13 +1049,13 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1074,10 +1074,10 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1090,13 +1090,13 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1115,10 +1115,10 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1131,13 +1131,13 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1156,10 +1156,10 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1172,13 +1172,13 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1197,10 +1197,10 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1213,13 +1213,13 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1238,10 +1238,10 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1254,13 +1254,13 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1279,10 +1279,10 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1295,13 +1295,13 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1320,10 +1320,10 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1336,13 +1336,13 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1361,10 +1361,10 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1377,13 +1377,13 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1402,10 +1402,10 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1418,13 +1418,13 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1443,10 +1443,10 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1459,13 +1459,13 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1484,10 +1484,10 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1500,13 +1500,13 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1525,10 +1525,10 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1541,13 +1541,13 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -1566,10 +1566,10 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1582,13 +1582,13 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -1607,10 +1607,10 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1623,13 +1623,13 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1648,10 +1648,10 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1664,13 +1664,13 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -1689,10 +1689,10 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1705,13 +1705,13 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1730,10 +1730,10 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1746,13 +1746,13 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -1771,10 +1771,10 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1787,13 +1787,13 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -1812,10 +1812,10 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1828,13 +1828,13 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -1853,10 +1853,10 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1869,13 +1869,13 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -1894,10 +1894,10 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1910,13 +1910,13 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -1935,10 +1935,10 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1951,13 +1951,13 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -1976,10 +1976,10 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1992,13 +1992,13 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2017,10 +2017,10 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2033,13 +2033,13 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2058,10 +2058,10 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2074,13 +2074,13 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -2099,10 +2099,10 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2115,13 +2115,13 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -2140,10 +2140,10 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2156,13 +2156,13 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -2181,10 +2181,10 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2197,13 +2197,13 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -2222,10 +2222,10 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2238,13 +2238,13 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -2263,10 +2263,10 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2279,13 +2279,13 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -2304,10 +2304,10 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2320,13 +2320,13 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -2345,10 +2345,10 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2361,13 +2361,13 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -2386,10 +2386,10 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2402,13 +2402,13 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -2427,10 +2427,10 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2443,13 +2443,13 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -2468,10 +2468,10 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2484,13 +2484,13 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -2509,10 +2509,10 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2525,13 +2525,13 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -2550,10 +2550,10 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2566,13 +2566,13 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -2591,10 +2591,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2607,13 +2607,13 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -2632,10 +2632,10 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2648,13 +2648,13 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
@@ -2673,10 +2673,10 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2689,13 +2689,13 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
@@ -2714,10 +2714,10 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2730,13 +2730,13 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -2755,10 +2755,10 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2771,13 +2771,13 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -2796,10 +2796,10 @@
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2812,13 +2812,13 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -2837,10 +2837,10 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2853,13 +2853,13 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
@@ -2878,10 +2878,10 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2894,13 +2894,13 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
@@ -2919,10 +2919,10 @@
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2935,13 +2935,13 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
@@ -2960,10 +2960,10 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2976,13 +2976,13 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
@@ -3001,10 +3001,10 @@
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3017,13 +3017,13 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
@@ -3042,10 +3042,10 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3058,13 +3058,13 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
@@ -3083,10 +3083,10 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3099,13 +3099,13 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
@@ -3124,10 +3124,10 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3140,13 +3140,13 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -3165,10 +3165,10 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3181,13 +3181,13 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -3206,10 +3206,10 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3222,13 +3222,13 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -3247,10 +3247,10 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3263,13 +3263,13 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -3288,10 +3288,10 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3304,13 +3304,13 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -3329,10 +3329,10 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3345,13 +3345,13 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -3370,10 +3370,10 @@
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3386,13 +3386,13 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -3411,10 +3411,10 @@
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3427,13 +3427,13 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
@@ -3452,10 +3452,10 @@
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3468,13 +3468,13 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -3493,10 +3493,10 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3509,13 +3509,13 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
@@ -3534,10 +3534,10 @@
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3550,13 +3550,13 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
@@ -3575,10 +3575,10 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3591,13 +3591,13 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
@@ -3616,10 +3616,10 @@
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -3632,13 +3632,13 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
@@ -3657,10 +3657,10 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3673,13 +3673,13 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
@@ -3698,10 +3698,10 @@
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3714,13 +3714,13 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
@@ -3739,10 +3739,10 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3755,13 +3755,13 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
@@ -3780,10 +3780,10 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3796,13 +3796,13 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
@@ -3821,10 +3821,10 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3837,13 +3837,13 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
@@ -3862,10 +3862,10 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3878,13 +3878,13 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
@@ -3903,10 +3903,10 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -3919,13 +3919,13 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
@@ -3944,10 +3944,10 @@
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -3960,13 +3960,13 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
@@ -3985,10 +3985,10 @@
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -4001,13 +4001,13 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
@@ -4026,10 +4026,10 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4042,13 +4042,13 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
@@ -4067,10 +4067,10 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -4083,13 +4083,13 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
@@ -4108,10 +4108,10 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -4124,13 +4124,13 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
@@ -4149,10 +4149,10 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -4165,13 +4165,13 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
@@ -4190,10 +4190,10 @@
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -4206,13 +4206,13 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
@@ -4231,10 +4231,10 @@
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -4247,13 +4247,13 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
@@ -4272,10 +4272,10 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -4288,13 +4288,13 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
@@ -4313,10 +4313,10 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -4329,13 +4329,13 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
@@ -4354,10 +4354,10 @@
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4370,13 +4370,13 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
@@ -4395,10 +4395,10 @@
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -4411,13 +4411,13 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
@@ -4436,10 +4436,10 @@
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -4452,13 +4452,13 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
@@ -4477,10 +4477,10 @@
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -4493,13 +4493,13 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
@@ -4518,10 +4518,10 @@
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -4534,13 +4534,13 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
@@ -4559,10 +4559,10 @@
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -4575,13 +4575,13 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
@@ -4600,10 +4600,10 @@
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -4616,13 +4616,13 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
@@ -4641,10 +4641,10 @@
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -4657,13 +4657,13 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
@@ -4682,10 +4682,10 @@
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -4698,13 +4698,13 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
@@ -4723,10 +4723,10 @@
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -4739,13 +4739,13 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
@@ -4764,10 +4764,10 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4780,13 +4780,13 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
@@ -4805,10 +4805,10 @@
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -4821,13 +4821,13 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
@@ -4846,10 +4846,10 @@
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4862,13 +4862,13 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
@@ -4887,10 +4887,10 @@
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -4903,13 +4903,13 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
@@ -4928,10 +4928,10 @@
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -4944,13 +4944,13 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
@@ -4969,10 +4969,10 @@
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4985,13 +4985,13 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
@@ -5010,10 +5010,10 @@
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -5026,13 +5026,13 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
@@ -5051,10 +5051,10 @@
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -5067,13 +5067,13 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
@@ -5092,10 +5092,10 @@
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -5108,13 +5108,13 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
@@ -5133,10 +5133,10 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -5149,13 +5149,13 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
@@ -5174,10 +5174,10 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -5190,13 +5190,13 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
@@ -5215,10 +5215,10 @@
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -5231,13 +5231,13 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
@@ -5256,10 +5256,10 @@
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -5272,13 +5272,13 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
@@ -5297,10 +5297,10 @@
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -5313,13 +5313,13 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
@@ -5338,10 +5338,10 @@
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -5354,13 +5354,13 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
@@ -5379,10 +5379,10 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -5395,13 +5395,13 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
@@ -5420,10 +5420,10 @@
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -5436,13 +5436,13 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
@@ -5461,10 +5461,10 @@
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -5477,13 +5477,13 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
@@ -5502,10 +5502,10 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -5518,13 +5518,13 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
@@ -5543,10 +5543,10 @@
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -5559,13 +5559,13 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
@@ -5584,10 +5584,10 @@
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -5600,13 +5600,13 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
@@ -5625,10 +5625,10 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -5641,13 +5641,13 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
@@ -5666,10 +5666,10 @@
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -5682,13 +5682,13 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
@@ -5707,10 +5707,10 @@
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -5723,13 +5723,13 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
@@ -5748,10 +5748,10 @@
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -5764,13 +5764,13 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
@@ -5789,10 +5789,10 @@
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -5805,13 +5805,13 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
@@ -5830,10 +5830,10 @@
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -5846,13 +5846,13 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
@@ -5871,10 +5871,10 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -5887,13 +5887,13 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
@@ -5912,10 +5912,10 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -5928,13 +5928,13 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
@@ -5953,10 +5953,10 @@
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -5969,13 +5969,13 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
@@ -5994,10 +5994,10 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -6010,13 +6010,13 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
@@ -6042,8 +6042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6087,7 +6087,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6126,115 +6126,115 @@
     </row>
     <row r="2" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="16" thickTop="1" thickBot="1"/>
     <row r="4" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6247,10 +6247,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -6267,15 +6267,15 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="5" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6302,10 +6302,10 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -6322,15 +6322,15 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="6" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6357,10 +6357,10 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -6377,15 +6377,15 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="7" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6412,10 +6412,10 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -6432,15 +6432,15 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="8" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6467,10 +6467,10 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -6487,15 +6487,15 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="9" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6522,10 +6522,10 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -6542,15 +6542,15 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="10" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6577,10 +6577,10 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -6595,15 +6595,15 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="11" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6628,10 +6628,10 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -6646,15 +6646,15 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="12" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6679,10 +6679,10 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -6697,15 +6697,15 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="13" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6730,10 +6730,10 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -6748,15 +6748,15 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="14" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6781,10 +6781,10 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -6801,15 +6801,15 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="15" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6836,10 +6836,10 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6856,15 +6856,15 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="16" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6891,10 +6891,10 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6909,15 +6909,15 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="17" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6942,10 +6942,10 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6962,15 +6962,15 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="18" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6997,10 +6997,10 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -7017,15 +7017,15 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="19" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7052,10 +7052,10 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -7070,15 +7070,15 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="20" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7103,10 +7103,10 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -7123,15 +7123,15 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="21" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7158,10 +7158,10 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -7178,15 +7178,15 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="22" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7213,10 +7213,10 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -7233,15 +7233,15 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="23" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7268,10 +7268,10 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -7288,15 +7288,15 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="24" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7323,10 +7323,10 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -7343,15 +7343,15 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="25" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7378,10 +7378,10 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -7398,15 +7398,15 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="26" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7433,10 +7433,10 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -7453,15 +7453,15 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="27" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7488,10 +7488,10 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -7508,15 +7508,15 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="28" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7543,10 +7543,10 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -7563,15 +7563,15 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="29" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7598,10 +7598,10 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -7618,15 +7618,15 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="30" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7653,10 +7653,10 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -7673,15 +7673,15 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="31" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -7708,10 +7708,10 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -7728,15 +7728,15 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="32" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7763,10 +7763,10 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -7783,15 +7783,15 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="33" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -7818,10 +7818,10 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -7838,15 +7838,15 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="34" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7873,10 +7873,10 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -7893,15 +7893,15 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="35" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -7928,10 +7928,10 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -7948,15 +7948,15 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
@@ -7970,7 +7970,7 @@
     </row>
     <row r="36" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7983,10 +7983,10 @@
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -8003,15 +8003,15 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="37" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8038,10 +8038,10 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -8058,15 +8058,15 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="38" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8093,10 +8093,10 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -8113,15 +8113,15 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="39" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8148,10 +8148,10 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -8168,15 +8168,15 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="40" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8203,10 +8203,10 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -8223,15 +8223,15 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="41" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8258,10 +8258,10 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -8278,15 +8278,15 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="42" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8313,10 +8313,10 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -8333,15 +8333,15 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="43" spans="1:35" ht="16" thickTop="1" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8368,10 +8368,10 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -8388,15 +8388,15 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
@@ -8426,8 +8426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8469,7 +8469,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="16" thickTop="1" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8506,103 +8506,103 @@
     </row>
     <row r="2" spans="1:33" ht="16" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="16" thickTop="1" thickBot="1"/>
@@ -8611,13 +8611,13 @@
         <v>0.1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -8629,40 +8629,40 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X4" s="1">
         <v>1</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -8670,7 +8670,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="15" thickTop="1"/>
@@ -8691,8 +8691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AQ1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8744,7 +8744,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="16" thickTop="1" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8791,133 +8791,133 @@
     </row>
     <row r="2" spans="1:43" ht="16" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AQ2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="16" thickTop="1" thickBot="1"/>
@@ -8926,13 +8926,13 @@
         <v>0.1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1">
         <v>-300</v>
@@ -8943,26 +8943,26 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1">
@@ -8972,47 +8972,47 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="1">
         <v>1</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH4" s="1">
         <v>0</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN4" s="1">
         <v>3300</v>
       </c>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ4" s="1">
         <v>202</v>
@@ -9023,17 +9023,17 @@
         <v>0.1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -9046,23 +9046,23 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V5" s="1">
         <v>3200</v>
@@ -9071,32 +9071,32 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB5" s="1">
         <v>1</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="AH5" s="1">
         <v>-300</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ5" s="1">
         <v>280</v>
@@ -9116,17 +9116,17 @@
     <row r="6" spans="1:43" ht="16" thickTop="1" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -9137,18 +9137,18 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -9162,26 +9162,26 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" s="1">
         <v>-300</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -9199,13 +9199,13 @@
         <v>0.1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1">
         <v>-300</v>
@@ -9216,26 +9216,26 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
@@ -9245,47 +9245,47 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="1">
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH7" s="1">
         <v>0</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN7" s="1">
         <v>3300</v>
       </c>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ7" s="1">
         <v>202</v>
@@ -9296,13 +9296,13 @@
         <v>0.1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
         <v>-500</v>
@@ -9313,26 +9313,26 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
@@ -9342,47 +9342,47 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="1">
         <v>1</v>
       </c>
       <c r="AC8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN8" s="1">
         <v>3500</v>
       </c>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AQ8" s="1">
         <v>202</v>
@@ -9391,17 +9391,17 @@
     <row r="9" spans="1:43" ht="16" thickTop="1" thickBot="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -9412,25 +9412,25 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V9" s="1">
         <v>6202</v>
@@ -9439,26 +9439,26 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -9476,17 +9476,17 @@
         <v>0.1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -9499,14 +9499,14 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -9520,30 +9520,30 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB10" s="1">
         <v>1</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1">
         <v>0</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ10" s="1">
         <v>120</v>
@@ -9565,13 +9565,13 @@
         <v>0.1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
         <v>-300</v>
@@ -9582,26 +9582,26 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1">
@@ -9611,47 +9611,47 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB11" s="1">
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH11" s="1">
         <v>0</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN11" s="1">
         <v>3300</v>
       </c>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AQ11" s="1">
         <v>202</v>
@@ -9662,13 +9662,13 @@
         <v>0.1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1">
         <v>-1500</v>
@@ -9681,14 +9681,14 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -9702,30 +9702,30 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB12" s="1">
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH12" s="1">
         <v>0</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AQ12" s="1">
         <v>300</v>
@@ -9745,17 +9745,17 @@
     <row r="13" spans="1:43" ht="16" thickTop="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -9766,18 +9766,18 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -9791,26 +9791,26 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH13" s="1">
         <v>-300</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -9826,17 +9826,17 @@
     <row r="14" spans="1:43" ht="16" thickTop="1" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -9847,25 +9847,25 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V14" s="1">
         <v>11800</v>
@@ -9874,26 +9874,26 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH14" s="1">
         <v>0</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -9909,17 +9909,17 @@
     <row r="15" spans="1:43" ht="16" thickTop="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -9930,18 +9930,18 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -9955,26 +9955,26 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH15" s="1">
         <v>0</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -9992,17 +9992,17 @@
         <v>0.1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="1">
         <v>-600</v>
@@ -10015,17 +10015,17 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -10038,32 +10038,32 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB16" s="1">
         <v>1</v>
       </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AG16" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="AH16" s="1">
         <v>-300</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ16" s="1">
         <v>280</v>
@@ -10083,17 +10083,17 @@
     <row r="17" spans="1:43" ht="16" thickTop="1" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -10104,18 +10104,18 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -10129,26 +10129,26 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH17" s="1">
         <v>-300</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
